--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Edit" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Skill ID</t>
   </si>
@@ -25,7 +26,72 @@
     <t>Skill Name</t>
   </si>
   <si>
-    <t>voice Skill</t>
+    <t>Voice Skill2</t>
+  </si>
+  <si>
+    <t>Skill Extension</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Skill Priority</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>00:01:00</t>
+  </si>
+  <si>
+    <t>Accepted SL</t>
+  </si>
+  <si>
+    <t>00:02:00</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Updated Skill Name</t>
+  </si>
+  <si>
+    <t>Voice Skill2 Updated</t>
+  </si>
+  <si>
+    <t>Updated Enabled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Select SkillID as 'Skill ID'
+  ,SkillName as 'Skill Name'
+  ,SkillExtension as 'Skill Extension'
+  ,Priority as 'Skill Priority'
+  ,Enabled 
+  FROM [Product_OCM].[dbo].[TMAC_Skills] order by [Skill ID]</t>
   </si>
 </sst>
 </file>
@@ -61,8 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,28 +435,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>101</v>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -395,24 +502,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -438,7 +438,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,12 +504,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
@@ -658,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Skill ID</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Skill Name</t>
   </si>
   <si>
-    <t>Voice Skill2</t>
-  </si>
-  <si>
     <t>Skill Extension</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>Updated Skill Name</t>
-  </si>
-  <si>
-    <t>Voice Skill2 Updated</t>
   </si>
   <si>
     <t>Updated Enabled</t>
@@ -92,6 +86,21 @@
   ,Priority as 'Skill Priority'
   ,Enabled 
   FROM [Product_OCM].[dbo].[TMAC_Skills] order by [Skill ID]</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>Skill Tab</t>
+  </si>
+  <si>
+    <t>Fax Skills</t>
+  </si>
+  <si>
+    <t>FaxSkill-2</t>
+  </si>
+  <si>
+    <t>FaxSkill-3</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +458,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,42 +466,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="H2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -502,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +528,10 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,60 +539,66 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -589,12 +610,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,48 +628,54 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -670,12 +698,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Skill ID</t>
   </si>
@@ -101,6 +105,15 @@
   </si>
   <si>
     <t>FaxSkill-3</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Skill1</t>
   </si>
 </sst>
 </file>
@@ -153,6 +166,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -200,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +474,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -508,6 +524,21 @@
       </c>
       <c r="H2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +562,7 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,9 +639,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -620,7 +651,7 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P9"/>
 </workbook>
 </file>
 
@@ -462,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -550,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -3,22 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>Skill ID</t>
   </si>
@@ -110,6 +115,21 @@
   </si>
   <si>
     <t>Skill1</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>MultiSkill</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>FaxSkill-4</t>
   </si>
 </sst>
 </file>
@@ -456,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,18 +543,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -544,10 +575,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,17 +720,52 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,12 +832,41 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
   <si>
     <t>Skill ID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Skill Extension</t>
-  </si>
-  <si>
-    <t>101</t>
   </si>
   <si>
     <t>Skill Priority</t>
@@ -93,9 +90,6 @@
   FROM [Product_OCM].[dbo].[TMAC_Skills] order by [Skill ID]</t>
   </si>
   <si>
-    <t>10101</t>
-  </si>
-  <si>
     <t>Skill Tab</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>FaxSkill-2</t>
   </si>
   <si>
-    <t>FaxSkill-3</t>
-  </si>
-  <si>
     <t>Skill</t>
   </si>
   <si>
@@ -117,19 +108,31 @@
     <t>Skill1</t>
   </si>
   <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>MultiSkill</t>
-  </si>
-  <si>
-    <t>6789</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>FaxSkill-4</t>
+    <t>FaxSkill-9</t>
+  </si>
+  <si>
+    <t>FaxSkill-8</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>Faxolic</t>
+  </si>
+  <si>
+    <t>ThreeSkill</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>6608</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,71 +504,71 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -594,39 +597,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +642,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,98 +664,98 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +768,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,80 +788,80 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -881,12 +884,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>Skill ID</t>
   </si>
@@ -117,22 +117,31 @@
     <t>FaxSkill-8</t>
   </si>
   <si>
-    <t>1167</t>
-  </si>
-  <si>
-    <t>1889</t>
-  </si>
-  <si>
-    <t>Faxolic</t>
-  </si>
-  <si>
-    <t>ThreeSkill</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>6608</t>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>6756</t>
+  </si>
+  <si>
+    <t>9809</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>9002</t>
+  </si>
+  <si>
+    <t>9806</t>
+  </si>
+  <si>
+    <t>ListMap</t>
+  </si>
+  <si>
+    <t>9005</t>
   </si>
 </sst>
 </file>
@@ -481,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +533,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -547,13 +556,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -642,7 +651,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -725,10 +734,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
@@ -767,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +820,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -837,10 +846,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Skill ID</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>9002</t>
-  </si>
-  <si>
-    <t>9806</t>
   </si>
   <si>
     <t>ListMap</t>
@@ -491,7 +488,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,13 +553,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,11 +14,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>Skill ID</t>
   </si>
@@ -80,6 +76,48 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Skill Tab</t>
+  </si>
+  <si>
+    <t>Fax Skills</t>
+  </si>
+  <si>
+    <t>FaxSkill-2</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>FaxSkill-9</t>
+  </si>
+  <si>
+    <t>FaxSkill-8</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>6756</t>
+  </si>
+  <si>
+    <t>9809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete FROM [dbo].[TMAC_Skills] where SkillName='FaxSkill-8'</t>
   </si>
   <si>
     <t xml:space="preserve">  Select SkillID as 'Skill ID'
@@ -87,58 +125,13 @@
   ,SkillExtension as 'Skill Extension'
   ,Priority as 'Skill Priority'
   ,Enabled 
-  FROM [Product_OCM].[dbo].[TMAC_Skills] order by [Skill ID]</t>
-  </si>
-  <si>
-    <t>Skill Tab</t>
-  </si>
-  <si>
-    <t>Fax Skills</t>
-  </si>
-  <si>
-    <t>FaxSkill-2</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Skill1</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>FaxSkill-9</t>
-  </si>
-  <si>
-    <t>FaxSkill-8</t>
-  </si>
-  <si>
-    <t>2265</t>
-  </si>
-  <si>
-    <t>Mapping</t>
-  </si>
-  <si>
-    <t>6756</t>
-  </si>
-  <si>
-    <t>9809</t>
-  </si>
-  <si>
-    <t>HashMap</t>
-  </si>
-  <si>
-    <t>9002</t>
-  </si>
-  <si>
-    <t>ListMap</t>
-  </si>
-  <si>
-    <t>9005</t>
+  FROM [dbo].[TMAC_Skills] order by [Skill ID]</t>
+  </si>
+  <si>
+    <t>FaxSkill-19</t>
+  </si>
+  <si>
+    <t>90123</t>
   </si>
 </sst>
 </file>
@@ -241,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,18 +515,18 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -548,21 +541,21 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -574,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -615,27 +608,27 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +641,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,18 +684,18 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -717,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -726,21 +719,21 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -752,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -761,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -773,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,18 +802,18 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -838,21 +831,21 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -867,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -877,15 +870,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -893,9 +886,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillConfigurationData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A4347C-79A2-4061-9149-9E3C99711226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
@@ -120,24 +125,24 @@
     <t xml:space="preserve"> Delete FROM [dbo].[TMAC_Skills] where SkillName='FaxSkill-8'</t>
   </si>
   <si>
+    <t>FaxSkill-19</t>
+  </si>
+  <si>
+    <t>90123</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Select SkillID as 'Skill ID'
   ,SkillName as 'Skill Name'
   ,SkillExtension as 'Skill Extension'
   ,Priority as 'Skill Priority'
   ,Enabled 
-  FROM [dbo].[TMAC_Skills] order by [Skill ID]</t>
-  </si>
-  <si>
-    <t>FaxSkill-19</t>
-  </si>
-  <si>
-    <t>90123</t>
+  FROM [dbo].[TMAC_Skills] order by [SkillName] Asc;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,22 +516,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -544,15 +583,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -576,16 +615,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,22 +650,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -637,22 +676,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -722,15 +761,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -763,20 +802,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -825,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -834,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -842,7 +881,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -854,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -869,29 +908,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
